--- a/四字熟語ガチャ.xlsx
+++ b/四字熟語ガチャ.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27728"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86D89538-FDAE-4317-9BD3-58A9E1DA781D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="四字熟語" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="1031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="1039">
   <si>
     <t>明鏡止水</t>
   </si>
@@ -93,6 +97,8 @@
         <sz val="11"/>
         <color rgb="FF4D5156"/>
         <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>。</t>
@@ -122,6 +128,8 @@
         <sz val="11"/>
         <color rgb="FF202124"/>
         <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>。 喜び、怒り、悲しみ、楽しみの四つの感情。</t>
@@ -141,7 +149,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF202124"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="游ゴシック"/>
         <scheme val="minor"/>
       </rPr>
       <t>。 また、私欲のために悪だくみをする者のたとえ。</t>
@@ -165,6 +173,599 @@
   <si>
     <r>
       <t>いろいろの花が咲き乱れること。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202124"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF040C28"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>転じて、秀でた人物が多く出て、すぐれた立派な業績が一時期にたくさん現れること</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202124"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>諸行無常</t>
+  </si>
+  <si>
+    <t>しょぎょうむじょう</t>
+  </si>
+  <si>
+    <t>万物はいつも流転し、変化・消滅がたえないこと。</t>
+  </si>
+  <si>
+    <t>温故知新</t>
+  </si>
+  <si>
+    <t>おんこちしん</t>
+  </si>
+  <si>
+    <t>昔のことをたずね求めて、そこから新しい知識、見解を導くこと。</t>
+  </si>
+  <si>
+    <t>花鳥風月</t>
+  </si>
+  <si>
+    <t>かちょうふうげつ</t>
+  </si>
+  <si>
+    <t>自然界の美しい景物。</t>
+  </si>
+  <si>
+    <t>鶏口牛後</t>
+  </si>
+  <si>
+    <t>けいこうぎゅうご</t>
+  </si>
+  <si>
+    <r>
+      <t>たとえ小さな組織でもそのリーダーになるべきで、大きな組織の下っぱに甘んじていてはいけないということ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>朝三暮四</t>
+  </si>
+  <si>
+    <t>ちょうさんぼし</t>
+  </si>
+  <si>
+    <t>目前の差にこだわり、結局は同じ結果なのに気がつかないこと。</t>
+  </si>
+  <si>
+    <t>不撓不屈</t>
+  </si>
+  <si>
+    <t>ふとうふくつ</t>
+  </si>
+  <si>
+    <t>強い意志をもって、どんな苦労や困難にもくじけないさま。</t>
+  </si>
+  <si>
+    <t>森羅万象</t>
+  </si>
+  <si>
+    <t>しんらばんしょう</t>
+  </si>
+  <si>
+    <r>
+      <t>宇宙に存在するすべての事物や現象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202124"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。 天地の間にある一切の事象。</t>
+    </r>
+  </si>
+  <si>
+    <t>慇懃無礼</t>
+  </si>
+  <si>
+    <t>いんぎんぶれい</t>
+  </si>
+  <si>
+    <t>うわべは丁寧に見えて、その実、尊大なさま。</t>
+  </si>
+  <si>
+    <t>泰然自若</t>
+  </si>
+  <si>
+    <t>たいぜんじじゃく</t>
+  </si>
+  <si>
+    <r>
+      <t>落ち着いていてどんなことにも動じないさま</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202124"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>本末転倒</t>
+  </si>
+  <si>
+    <t>ほんまつてんとう</t>
+  </si>
+  <si>
+    <t>根本的な事柄と些細な事柄とを取り違えること。</t>
+  </si>
+  <si>
+    <t>我田引水</t>
+  </si>
+  <si>
+    <t>がでんいんすい</t>
+  </si>
+  <si>
+    <t>物事を、自分の利益になるように引き付けていったりしたりすること。</t>
+  </si>
+  <si>
+    <t>一朝一夕</t>
+  </si>
+  <si>
+    <t>いっちょういっせき</t>
+  </si>
+  <si>
+    <t>ひと朝やひと晩。わずかの時日。</t>
+  </si>
+  <si>
+    <t>初志貫徹</t>
+  </si>
+  <si>
+    <t>しょしかんてつ</t>
+  </si>
+  <si>
+    <t>初めに心に決めた志を最後まで貫き通すこと。</t>
+  </si>
+  <si>
+    <t>起承転結</t>
+  </si>
+  <si>
+    <t>きしょうてんけつ</t>
+  </si>
+  <si>
+    <t>文章や話などで全体を秩序正しくまとめる構成の意。</t>
+  </si>
+  <si>
+    <t>行雲流水</t>
+  </si>
+  <si>
+    <t>こううんりゅうすい</t>
+  </si>
+  <si>
+    <r>
+      <t>空行く雲や流れる水のように、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF040C28"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>深く物事に執着しないで自然の成り行きに任せて行動するたとえ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>切磋琢磨</t>
+  </si>
+  <si>
+    <t>せっさたくま</t>
+  </si>
+  <si>
+    <t>学問・道徳に、励みに励むこと。また、仲間同士互いに励まし合って向上すること。</t>
+  </si>
+  <si>
+    <t>東奔西走</t>
+  </si>
+  <si>
+    <t>とうほんせいそう</t>
+  </si>
+  <si>
+    <t>あちこち忙しくかけまわること。</t>
+  </si>
+  <si>
+    <t>日進月歩</t>
+  </si>
+  <si>
+    <t>にっしんげっぽ</t>
+  </si>
+  <si>
+    <t>たえまなく、どんどん進歩すること。</t>
+  </si>
+  <si>
+    <t>自縄自縛</t>
+  </si>
+  <si>
+    <t>じじょうじばく</t>
+  </si>
+  <si>
+    <t>自分の言行で自分の動きがとれなくなり、苦しむこと。</t>
+  </si>
+  <si>
+    <t>罵詈雑言</t>
+  </si>
+  <si>
+    <t>ばりぞうごん</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF040C28"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>きたない言葉で、悪口を並べ立ててののしること</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。 また、その言葉。</t>
+    </r>
+  </si>
+  <si>
+    <t>温厚篤実</t>
+  </si>
+  <si>
+    <t>おんこうとくじつ</t>
+  </si>
+  <si>
+    <r>
+      <t>穏やかで情が深く、誠実なこと</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202124"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>付和雷同</t>
+  </si>
+  <si>
+    <t>ふわらいどう</t>
+  </si>
+  <si>
+    <t>自分にしっかりした考えがなく、むやみに他人の意見に同調すること。</t>
+  </si>
+  <si>
+    <t>疾風迅雷</t>
+  </si>
+  <si>
+    <t>しっぷうじんらい</t>
+  </si>
+  <si>
+    <r>
+      <t>風のようにすばやく、雷のように激しいこと</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。 激しい勢いで、すばやく動き回ること。</t>
+    </r>
+  </si>
+  <si>
+    <t>唯一無二</t>
+  </si>
+  <si>
+    <t>ゆいいつむに</t>
+  </si>
+  <si>
+    <r>
+      <t>他に同類のものがなく、その一つ以外並ぶものがないこと</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>晴耕雨読</t>
+  </si>
+  <si>
+    <t>せいこううどく</t>
+  </si>
+  <si>
+    <t>晴れた日は畑に出て耕作し、雨の日は家にいて読書すること。田園に閑居する文人の生活などに言う。</t>
+  </si>
+  <si>
+    <t>唯我独尊</t>
+  </si>
+  <si>
+    <t>ゆいがどくそん</t>
+  </si>
+  <si>
+    <r>
+      <t>この世で、自分ほど偉いものはいないとうぬぼれること</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202124"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>色即是空</t>
+  </si>
+  <si>
+    <t>しきそくぜくう</t>
+  </si>
+  <si>
+    <t>この世の万物は形をもつが、その形は仮のもので、本質は空であり、不変のものではないという意。</t>
+  </si>
+  <si>
+    <t>十人十色</t>
+  </si>
+  <si>
+    <t>じゅうにんといろ</t>
+  </si>
+  <si>
+    <t>人はそれぞれ好みや意見が異なっているということ。</t>
+  </si>
+  <si>
+    <t>頭脳明晰</t>
+  </si>
+  <si>
+    <t>ずのうめいせき</t>
+  </si>
+  <si>
+    <r>
+      <t>頭がよくて、考えがはっきりしていること</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>弱肉強食</t>
+  </si>
+  <si>
+    <t>じゃくにくきょうしょく</t>
+  </si>
+  <si>
+    <t>弱い者が強い者のえじきになること。 強い者が弱い者を思うままに滅ぼして、繁栄すること。</t>
+  </si>
+  <si>
+    <t>呉越同舟</t>
+  </si>
+  <si>
+    <t>ごえつどうしゅう</t>
+  </si>
+  <si>
+    <r>
+      <t>仲の悪い者同士、また、敵味方が、同じ場所にい合わせること</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>臥薪嘗胆</t>
+  </si>
+  <si>
+    <t>がしんしょうたん</t>
+  </si>
+  <si>
+    <r>
+      <t>将来の成功を期して苦労に耐えること</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="Google Sans"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>傍若無人</t>
+  </si>
+  <si>
+    <t>ぼうじゃくぶじん</t>
+  </si>
+  <si>
+    <t>人まえをはばからず勝手気ままにふるまうこと。</t>
+  </si>
+  <si>
+    <t>軽挙妄動</t>
+  </si>
+  <si>
+    <t>けいきょもうどう</t>
+  </si>
+  <si>
+    <r>
+      <t>ことの是非も考えず、みだりに右往左往するたとえ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="Google Sans"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>一喜一憂</t>
+  </si>
+  <si>
+    <t>いっきいちゆう</t>
+  </si>
+  <si>
+    <t>ある物事の情況が変化するたびに、それにつれて喜んだり心配したりすること。</t>
+  </si>
+  <si>
+    <t>勇往邁進</t>
+  </si>
+  <si>
+    <t>ゆうおうまいしん</t>
+  </si>
+  <si>
+    <t>恐れることなく、自分の目的・目標に向かって、ひたすら前進すること。</t>
+  </si>
+  <si>
+    <t>きたない言葉で、悪口を並べ立ててののしること。 また、その言葉。</t>
+  </si>
+  <si>
+    <t>栄枯盛衰</t>
+  </si>
+  <si>
+    <t>えいこせいすい</t>
+  </si>
+  <si>
+    <t> 世の中すべての人や物事には繁栄と衰退があるということ。</t>
+  </si>
+  <si>
+    <t>疑心暗鬼</t>
+  </si>
+  <si>
+    <t>ぎしんあんき</t>
+  </si>
+  <si>
+    <t>疑いの心があると、なんでもないことでも怖いと思ったり、疑わしく感じることのたとえ。疑いの深さからあらぬ妄想にとらわれるたとえ。</t>
+  </si>
+  <si>
+    <t>二束三文</t>
+  </si>
+  <si>
+    <t>にそくさんもん</t>
+  </si>
+  <si>
+    <t>数が多くても値段が非常にやすいこと。そういうもの。</t>
+  </si>
+  <si>
+    <t>換骨奪胎</t>
+  </si>
+  <si>
+    <t>かんこつだったい</t>
+  </si>
+  <si>
+    <t>他人の詩文の語句や構想をうまく利用し、その着想・形式をまねながら、自分の作としても価値があるものに作ること。</t>
+  </si>
+  <si>
+    <t>手前味噌</t>
+  </si>
+  <si>
+    <t>てまえみそ</t>
+  </si>
+  <si>
+    <r>
+      <t>自分で自分を褒めること。</t>
     </r>
     <r>
       <rPr>
@@ -182,7 +783,7 @@
         <rFont val="游ゴシック"/>
         <scheme val="minor"/>
       </rPr>
-      <t>転じて、秀でた人物が多く出て、すぐれた立派な業績が一時期にたくさん現れること</t>
+      <t>自慢。</t>
     </r>
     <r>
       <rPr>
@@ -191,45 +792,65 @@
         <rFont val="游ゴシック"/>
         <scheme val="minor"/>
       </rPr>
-      <t>。</t>
+      <t> </t>
     </r>
   </si>
   <si>
-    <t>諸行無常</t>
-  </si>
-  <si>
-    <t>しょぎょうむじょう</t>
-  </si>
-  <si>
-    <t>万物はいつも流転し、変化・消滅がたえないこと。</t>
-  </si>
-  <si>
-    <t>温故知新</t>
-  </si>
-  <si>
-    <t>おんこちしん</t>
-  </si>
-  <si>
-    <t>昔のことをたずね求めて、そこから新しい知識、見解を導くこと。</t>
-  </si>
-  <si>
-    <t>花鳥風月</t>
-  </si>
-  <si>
-    <t>かちょうふうげつ</t>
-  </si>
-  <si>
-    <t>自然界の美しい景物。</t>
-  </si>
-  <si>
-    <t>鶏口牛後</t>
-  </si>
-  <si>
-    <t>けいこうぎゅうご</t>
+    <t>杓子定規</t>
+  </si>
+  <si>
+    <t>しゃくしじょうぎ</t>
+  </si>
+  <si>
+    <t>なんでも一つの規則、標準で律しようとする、融通の利かないやりかた、態度。</t>
+  </si>
+  <si>
+    <t>荒唐無稽</t>
+  </si>
+  <si>
+    <t>こうとうむけい</t>
   </si>
   <si>
     <r>
-      <t>たとえ小さな組織でもそのリーダーになるべきで、大きな組織の下っぱに甘んじていてはいけないということ</t>
+      <t>根拠がなく、現実味が感じられないこと</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="游ゴシック"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。 また、そのさま。</t>
+    </r>
+  </si>
+  <si>
+    <t>四面楚歌</t>
+  </si>
+  <si>
+    <t>しめんそか</t>
+  </si>
+  <si>
+    <r>
+      <t>敵に囲まれて孤立し、助けがないこと。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="游ゴシック"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF040C28"/>
+        <rFont val="游ゴシック"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>周囲の者が反対者ばかりであること</t>
     </r>
     <r>
       <rPr>
@@ -242,585 +863,6 @@
     </r>
   </si>
   <si>
-    <t>朝三暮四</t>
-  </si>
-  <si>
-    <t>ちょうさんぼし</t>
-  </si>
-  <si>
-    <t>目前の差にこだわり、結局は同じ結果なのに気がつかないこと。</t>
-  </si>
-  <si>
-    <t>不撓不屈</t>
-  </si>
-  <si>
-    <t>ふとうふくつ</t>
-  </si>
-  <si>
-    <t>強い意志をもって、どんな苦労や困難にもくじけないさま。</t>
-  </si>
-  <si>
-    <t>森羅万象</t>
-  </si>
-  <si>
-    <t>しんらばんしょう</t>
-  </si>
-  <si>
-    <r>
-      <t>宇宙に存在するすべての事物や現象</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF202124"/>
-        <rFont val="游ゴシック"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。 天地の間にある一切の事象。</t>
-    </r>
-  </si>
-  <si>
-    <t>慇懃無礼</t>
-  </si>
-  <si>
-    <t>いんぎんぶれい</t>
-  </si>
-  <si>
-    <t>うわべは丁寧に見えて、その実、尊大なさま。</t>
-  </si>
-  <si>
-    <t>泰然自若</t>
-  </si>
-  <si>
-    <t>たいぜんじじゃく</t>
-  </si>
-  <si>
-    <r>
-      <t>落ち着いていてどんなことにも動じないさま</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF202124"/>
-        <rFont val="游ゴシック"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>本末転倒</t>
-  </si>
-  <si>
-    <t>ほんまつてんとう</t>
-  </si>
-  <si>
-    <t>根本的な事柄と些細な事柄とを取り違えること。</t>
-  </si>
-  <si>
-    <t>我田引水</t>
-  </si>
-  <si>
-    <t>がでんいんすい</t>
-  </si>
-  <si>
-    <t>物事を、自分の利益になるように引き付けていったりしたりすること。</t>
-  </si>
-  <si>
-    <t>一朝一夕</t>
-  </si>
-  <si>
-    <t>いっちょういっせき</t>
-  </si>
-  <si>
-    <t>ひと朝やひと晩。わずかの時日。</t>
-  </si>
-  <si>
-    <t>初志貫徹</t>
-  </si>
-  <si>
-    <t>しょしかんてつ</t>
-  </si>
-  <si>
-    <t>初めに心に決めた志を最後まで貫き通すこと。</t>
-  </si>
-  <si>
-    <t>起承転結</t>
-  </si>
-  <si>
-    <t>きしょうてんけつ</t>
-  </si>
-  <si>
-    <t>文章や話などで全体を秩序正しくまとめる構成の意。</t>
-  </si>
-  <si>
-    <t>行雲流水</t>
-  </si>
-  <si>
-    <t>こううんりゅうすい</t>
-  </si>
-  <si>
-    <r>
-      <t>空行く雲や流れる水のように、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF040C28"/>
-        <rFont val="游ゴシック"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>深く物事に執着しないで自然の成り行きに任せて行動するたとえ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4D5156"/>
-        <rFont val="游ゴシック"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>切磋琢磨</t>
-  </si>
-  <si>
-    <t>せっさたくま</t>
-  </si>
-  <si>
-    <t>学問・道徳に、励みに励むこと。また、仲間同士互いに励まし合って向上すること。</t>
-  </si>
-  <si>
-    <t>東奔西走</t>
-  </si>
-  <si>
-    <t>とうほんせいそう</t>
-  </si>
-  <si>
-    <t>あちこち忙しくかけまわること。</t>
-  </si>
-  <si>
-    <t>日進月歩</t>
-  </si>
-  <si>
-    <t>にっしんげっぽ</t>
-  </si>
-  <si>
-    <t>たえまなく、どんどん進歩すること。</t>
-  </si>
-  <si>
-    <t>自縄自縛</t>
-  </si>
-  <si>
-    <t>じじょうじばく</t>
-  </si>
-  <si>
-    <t>自分の言行で自分の動きがとれなくなり、苦しむこと。</t>
-  </si>
-  <si>
-    <t>罵詈雑言</t>
-  </si>
-  <si>
-    <t>ばりぞうごん</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF040C28"/>
-        <rFont val="游ゴシック"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>きたない言葉で、悪口を並べ立ててののしること</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4D5156"/>
-        <rFont val="游ゴシック"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。 また、その言葉。</t>
-    </r>
-  </si>
-  <si>
-    <t>温厚篤実</t>
-  </si>
-  <si>
-    <t>おんこうとくじつ</t>
-  </si>
-  <si>
-    <r>
-      <t>穏やかで情が深く、誠実なこと</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF202124"/>
-        <rFont val="游ゴシック"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>付和雷同</t>
-  </si>
-  <si>
-    <t>ふわらいどう</t>
-  </si>
-  <si>
-    <t>自分にしっかりした考えがなく、むやみに他人の意見に同調すること。</t>
-  </si>
-  <si>
-    <t>疾風迅雷</t>
-  </si>
-  <si>
-    <t>しっぷうじんらい</t>
-  </si>
-  <si>
-    <r>
-      <t>風のようにすばやく、雷のように激しいこと</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4D5156"/>
-        <rFont val="游ゴシック"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。 激しい勢いで、すばやく動き回ること。</t>
-    </r>
-  </si>
-  <si>
-    <t>唯一無二</t>
-  </si>
-  <si>
-    <t>ゆいいつむに</t>
-  </si>
-  <si>
-    <r>
-      <t>他に同類のものがなく、その一つ以外並ぶものがないこと</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4D5156"/>
-        <rFont val="游ゴシック"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>晴耕雨読</t>
-  </si>
-  <si>
-    <t>せいこううどく</t>
-  </si>
-  <si>
-    <t>晴れた日は畑に出て耕作し、雨の日は家にいて読書すること。田園に閑居する文人の生活などに言う。</t>
-  </si>
-  <si>
-    <t>唯我独尊</t>
-  </si>
-  <si>
-    <t>ゆいがどくそん</t>
-  </si>
-  <si>
-    <r>
-      <t>この世で、自分ほど偉いものはいないとうぬぼれること</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF202124"/>
-        <rFont val="游ゴシック"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>色即是空</t>
-  </si>
-  <si>
-    <t>しきそくぜくう</t>
-  </si>
-  <si>
-    <t>この世の万物は形をもつが、その形は仮のもので、本質は空であり、不変のものではないという意。</t>
-  </si>
-  <si>
-    <t>十人十色</t>
-  </si>
-  <si>
-    <t>じゅうにんといろ</t>
-  </si>
-  <si>
-    <t>人はそれぞれ好みや意見が異なっているということ。</t>
-  </si>
-  <si>
-    <t>頭脳明晰</t>
-  </si>
-  <si>
-    <t>ずのうめいせき</t>
-  </si>
-  <si>
-    <r>
-      <t>頭がよくて、考えがはっきりしていること</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4D5156"/>
-        <rFont val="游ゴシック"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>弱肉強食</t>
-  </si>
-  <si>
-    <t>じゃくにくきょうしょく</t>
-  </si>
-  <si>
-    <t>弱い者が強い者のえじきになること。 強い者が弱い者を思うままに滅ぼして、繁栄すること。</t>
-  </si>
-  <si>
-    <t>呉越同舟</t>
-  </si>
-  <si>
-    <t>ごえつどうしゅう</t>
-  </si>
-  <si>
-    <r>
-      <t>仲の悪い者同士、また、敵味方が、同じ場所にい合わせること</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4D5156"/>
-        <rFont val="游ゴシック"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>臥薪嘗胆</t>
-  </si>
-  <si>
-    <t>がしんしょうたん</t>
-  </si>
-  <si>
-    <r>
-      <t>将来の成功を期して苦労に耐えること</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4D5156"/>
-        <rFont val="Google Sans"/>
-        <charset val="1"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>傍若無人</t>
-  </si>
-  <si>
-    <t>ぼうじゃくぶじん</t>
-  </si>
-  <si>
-    <t>人まえをはばからず勝手気ままにふるまうこと。</t>
-  </si>
-  <si>
-    <t>軽挙妄動</t>
-  </si>
-  <si>
-    <t>けいきょもうどう</t>
-  </si>
-  <si>
-    <r>
-      <t>ことの是非も考えず、みだりに右往左往するたとえ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4D5156"/>
-        <rFont val="Google Sans"/>
-        <charset val="1"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>一喜一憂</t>
-  </si>
-  <si>
-    <t>いっきいちゆう</t>
-  </si>
-  <si>
-    <t>ある物事の情況が変化するたびに、それにつれて喜んだり心配したりすること。</t>
-  </si>
-  <si>
-    <t>勇往邁進</t>
-  </si>
-  <si>
-    <t>ゆうおうまいしん</t>
-  </si>
-  <si>
-    <t>恐れることなく、自分の目的・目標に向かって、ひたすら前進すること。</t>
-  </si>
-  <si>
-    <t>きたない言葉で、悪口を並べ立ててののしること。 また、その言葉。</t>
-  </si>
-  <si>
-    <t>栄枯盛衰</t>
-  </si>
-  <si>
-    <t>えいこせいすい</t>
-  </si>
-  <si>
-    <t> 世の中すべての人や物事には繁栄と衰退があるということ。</t>
-  </si>
-  <si>
-    <t>疑心暗鬼</t>
-  </si>
-  <si>
-    <t>ぎしんあんき</t>
-  </si>
-  <si>
-    <t>疑いの心があると、なんでもないことでも怖いと思ったり、疑わしく感じることのたとえ。疑いの深さからあらぬ妄想にとらわれるたとえ。</t>
-  </si>
-  <si>
-    <t>二束三文</t>
-  </si>
-  <si>
-    <t>にそくさんもん</t>
-  </si>
-  <si>
-    <t>数が多くても値段が非常にやすいこと。そういうもの。</t>
-  </si>
-  <si>
-    <t>換骨奪胎</t>
-  </si>
-  <si>
-    <t>かんこつだったい</t>
-  </si>
-  <si>
-    <t>他人の詩文の語句や構想をうまく利用し、その着想・形式をまねながら、自分の作としても価値があるものに作ること。</t>
-  </si>
-  <si>
-    <t>手前味噌</t>
-  </si>
-  <si>
-    <t>てまえみそ</t>
-  </si>
-  <si>
-    <r>
-      <t>自分で自分を褒めること。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF202124"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF040C28"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>自慢。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF202124"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>杓子定規</t>
-  </si>
-  <si>
-    <t>しゃくしじょうぎ</t>
-  </si>
-  <si>
-    <t>なんでも一つの規則、標準で律しようとする、融通の利かないやりかた、態度。</t>
-  </si>
-  <si>
-    <t>荒唐無稽</t>
-  </si>
-  <si>
-    <t>こうとうむけい</t>
-  </si>
-  <si>
-    <r>
-      <t>根拠がなく、現実味が感じられないこと</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4D5156"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。 また、そのさま。</t>
-    </r>
-  </si>
-  <si>
-    <t>四面楚歌</t>
-  </si>
-  <si>
-    <t>しめんそか</t>
-  </si>
-  <si>
-    <r>
-      <t>敵に囲まれて孤立し、助けがないこと。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4D5156"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF040C28"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>周囲の者が反対者ばかりであること</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4D5156"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
     <t>曖昧模糊</t>
   </si>
   <si>
@@ -835,7 +877,8 @@
         <sz val="11"/>
         <color rgb="FF202124"/>
         <rFont val="Google Sans"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>。 あやふやなさま。</t>
     </r>
@@ -864,7 +907,8 @@
         <sz val="11"/>
         <color rgb="FF202124"/>
         <rFont val="Google Sans"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>。</t>
     </r>
@@ -884,7 +928,8 @@
         <sz val="11"/>
         <color rgb="FF202124"/>
         <rFont val="Google Sans"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>。</t>
     </r>
@@ -940,7 +985,8 @@
         <sz val="11"/>
         <color rgb="FF4D5156"/>
         <rFont val="Google Sans"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>。</t>
     </r>
@@ -960,7 +1006,8 @@
         <sz val="11"/>
         <color rgb="FF4D5156"/>
         <rFont val="Google Sans"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>。 また、みんなの意見が一致すること。</t>
     </r>
@@ -1004,7 +1051,8 @@
         <sz val="11"/>
         <color rgb="FF202124"/>
         <rFont val="Google Sans"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>。 </t>
     </r>
@@ -1051,7 +1099,8 @@
         <sz val="11"/>
         <color rgb="FF202124"/>
         <rFont val="Google Sans"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>。</t>
     </r>
@@ -1080,7 +1129,8 @@
         <sz val="11"/>
         <color rgb="FF202124"/>
         <rFont val="Google Sans"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>。</t>
     </r>
@@ -1100,7 +1150,8 @@
         <sz val="11"/>
         <color rgb="FF202124"/>
         <rFont val="Google Sans"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>。</t>
     </r>
@@ -1120,7 +1171,8 @@
         <sz val="11"/>
         <color rgb="FF202124"/>
         <rFont val="Google Sans"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>。 物事の道理をよく考え、深く思いを凝らして判断すること。</t>
     </r>
@@ -1140,7 +1192,8 @@
         <sz val="11"/>
         <color rgb="FF202124"/>
         <rFont val="Google Sans"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>。 すぐれた金属と立派な玉の意から。</t>
     </r>
@@ -1160,7 +1213,8 @@
         <sz val="11"/>
         <color rgb="FF202124"/>
         <rFont val="Google Sans"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>。</t>
     </r>
@@ -1189,7 +1243,8 @@
         <sz val="11"/>
         <color rgb="FF202124"/>
         <rFont val="Google Sans"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>。</t>
     </r>
@@ -1209,7 +1264,8 @@
         <sz val="11"/>
         <color rgb="FF202124"/>
         <rFont val="Google Sans"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>。</t>
     </r>
@@ -1229,7 +1285,8 @@
         <sz val="11"/>
         <color rgb="FF202124"/>
         <rFont val="Google Sans"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>。</t>
     </r>
@@ -1258,7 +1315,8 @@
         <sz val="11"/>
         <color rgb="FF202124"/>
         <rFont val="Google Sans"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>。</t>
     </r>
@@ -1278,7 +1336,8 @@
         <sz val="11"/>
         <color rgb="FF202124"/>
         <rFont val="Google Sans"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>。</t>
     </r>
@@ -1298,7 +1357,8 @@
         <sz val="11"/>
         <color rgb="FF202124"/>
         <rFont val="Google Sans"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>。 うろたえ騒ぐこと。</t>
     </r>
@@ -1345,7 +1405,8 @@
         <sz val="11"/>
         <color rgb="FF202124"/>
         <rFont val="Google Sans"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>。 また、ほとんど死を避けがたい危険な瀬戸際で、かろうじて助かること。</t>
     </r>
@@ -1383,7 +1444,8 @@
         <sz val="11"/>
         <color rgb="FF202124"/>
         <rFont val="Google Sans"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>。 援助なしで1人で努力すること。</t>
     </r>
@@ -1400,6 +1462,8 @@
         <sz val="11"/>
         <color rgb="FF040C28"/>
         <rFont val="Google Sans"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>たとえ遠く離れていても、すぐ近くにいるように親しく思われること</t>
     </r>
@@ -1408,6 +1472,8 @@
         <sz val="11"/>
         <color rgb="FF202124"/>
         <rFont val="Google Sans"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>。 親しい友人などについていう。</t>
     </r>
@@ -1427,7 +1493,8 @@
         <sz val="11"/>
         <color rgb="FF202124"/>
         <rFont val="Google Sans"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>。</t>
     </r>
@@ -1447,7 +1514,8 @@
         <sz val="11"/>
         <color rgb="FF202124"/>
         <rFont val="Google Sans"/>
-        <charset val="1"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>。</t>
     </r>
@@ -3704,11 +3772,55 @@
   <si>
     <t>　　（いちごいちえ）</t>
   </si>
+  <si>
+    <t>単語</t>
+    <rPh sb="0" eb="2">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>読み方</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>意味</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>レア度</t>
+    <rPh sb="2" eb="3">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SSR</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SR</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19">
     <font>
       <sz val="11"/>
@@ -3721,24 +3833,32 @@
       <sz val="11"/>
       <color rgb="FF040C28"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF202124"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF4D5156"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3765,36 +3885,39 @@
       <sz val="11"/>
       <color rgb="FF4D5156"/>
       <name val="Google Sans"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Meiryo UI"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF202124"/>
       <name val="Google Sans"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF040C28"/>
-      <name val="Aptos Narrow"/>
+      <name val="游ゴシック"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF202124"/>
-      <name val="Aptos Narrow"/>
+      <name val="游ゴシック"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF4D5156"/>
-      <name val="Aptos Narrow"/>
+      <name val="游ゴシック"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3808,17 +3931,15 @@
       <sz val="11"/>
       <color rgb="FF040C28"/>
       <name val="Google Sans"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF202124"/>
-      <name val="Google Sans"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF202124"/>
       <name val="Google Sans"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3826,6 +3947,13 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3863,8 +3991,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4198,1130 +4326,1445 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="21.25" customWidth="1"/>
     <col min="3" max="3" width="127.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.75">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="D10" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="D11" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="D12" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="D13" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="D14" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="D15" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="D16" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="D17" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="D18" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
         <v>51</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="D19" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
         <v>54</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="D20" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
         <v>57</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="D21" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
         <v>60</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="D22" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
         <v>63</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>64</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="D23" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
         <v>66</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="D24" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
         <v>69</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="D25" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
         <v>72</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+      <c r="D26" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
         <v>75</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+      <c r="D27" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
         <v>78</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="D28" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
         <v>81</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+      <c r="D29" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
         <v>84</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+      <c r="D30" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
         <v>87</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+      <c r="D31" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
         <v>90</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+      <c r="D32" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
         <v>93</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+      <c r="D33" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
         <v>96</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="18.75">
-      <c r="A34" t="s">
+      <c r="D34" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
         <v>99</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+      <c r="D35" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
         <v>102</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
+      <c r="D36" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
         <v>105</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
+      <c r="D37" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
         <v>108</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
+      <c r="D38" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
         <v>111</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
+      <c r="D39" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
         <v>114</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
+      <c r="D40" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
         <v>117</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
+      <c r="D41" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
         <v>120</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
+      <c r="D42" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
         <v>123</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="15">
-      <c r="A43" t="s">
+      <c r="D43" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
         <v>126</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
+      <c r="D44" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
         <v>129</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="15">
-      <c r="A45" t="s">
+      <c r="D45" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
         <v>132</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
+      <c r="D46" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
         <v>135</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>136</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
+      <c r="D47" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
         <v>138</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>139</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75">
-      <c r="A48" t="s">
+      <c r="D48" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
         <v>90</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C49" s="8" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="15">
-      <c r="A49" t="s">
+      <c r="D49" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
         <v>142</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>143</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C50" s="9" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
+      <c r="D50" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
         <v>145</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
+      <c r="D51" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
         <v>148</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>149</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
+      <c r="D52" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
         <v>151</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>152</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75">
-      <c r="A53" t="s">
+      <c r="D53" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
         <v>154</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>155</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
+      <c r="D54" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
         <v>157</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>158</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75">
-      <c r="A55" t="s">
+      <c r="D55" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
         <v>160</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>161</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75">
-      <c r="A56" t="s">
+      <c r="D56" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
         <v>163</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>164</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75">
-      <c r="A57" t="s">
+      <c r="D57" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
         <v>166</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>167</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C58" s="7" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
+      <c r="D58" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
         <v>169</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>170</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.75">
-      <c r="A59" t="s">
+      <c r="D59" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
         <v>172</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>173</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C60" s="7" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.75">
-      <c r="A60" t="s">
+      <c r="D60" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
         <v>175</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>176</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C61" s="7" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.75">
-      <c r="A61" t="s">
+      <c r="D61" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
         <v>178</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>179</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="15.75">
-      <c r="A62" t="s">
+      <c r="D62" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
         <v>181</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>182</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.75">
-      <c r="A63" t="s">
+      <c r="D63" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
         <v>184</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>185</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
+      <c r="D64" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
         <v>187</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>188</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="15.75">
-      <c r="A65" t="s">
+      <c r="D65" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
         <v>190</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>191</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C66" s="7" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="15.75">
-      <c r="A66" t="s">
+      <c r="D66" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
         <v>193</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>194</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C67" s="7" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
+      <c r="D67" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
         <v>196</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>197</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="15.75">
-      <c r="A68" t="s">
+      <c r="D68" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
         <v>199</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>200</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C69" s="7" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="15.75">
-      <c r="A69" t="s">
+      <c r="D69" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
         <v>201</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>202</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C70" s="11" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="15.75">
-      <c r="A70" t="s">
+      <c r="D70" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
         <v>204</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>205</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C71" s="7" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
+      <c r="D71" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
         <v>207</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>208</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="15.75">
-      <c r="A72" t="s">
+      <c r="D72" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
         <v>210</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>211</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C73" s="9" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="15.75">
-      <c r="A73" t="s">
+      <c r="D73" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
         <v>213</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>214</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C74" s="5" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="15.75">
-      <c r="A74" t="s">
+      <c r="D74" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
         <v>216</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>217</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C75" s="7" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="15.75">
-      <c r="A75" t="s">
+      <c r="D75" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
         <v>219</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>220</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="15.75">
-      <c r="A76" t="s">
+      <c r="D76" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
         <v>222</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>223</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C77" s="7" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="18.75">
-      <c r="A77" t="s">
+      <c r="D77" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
         <v>225</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>226</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C78" s="7" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="18.75">
-      <c r="A78" t="s">
+      <c r="D78" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
         <v>228</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>229</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C79" s="7" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="18.75">
-      <c r="A79" t="s">
+      <c r="D79" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
         <v>231</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C80" s="7" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="18.75">
-      <c r="A80" t="s">
+      <c r="D80" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
         <v>234</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>235</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C81" s="7" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="18.75">
-      <c r="A81" t="s">
+      <c r="D81" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
         <v>237</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>238</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C82" s="5" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="18.75">
-      <c r="A82" t="s">
+      <c r="D82" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
         <v>240</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>241</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C83" s="7" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="18.75">
-      <c r="A83" t="s">
+      <c r="D83" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
         <v>243</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>244</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C84" s="7" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="18.75">
-      <c r="A84" t="s">
+      <c r="D84" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
         <v>246</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>247</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C85" s="7" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="18.75">
-      <c r="A85" t="s">
+      <c r="D85" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
         <v>249</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>250</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C86" s="5" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="18.75">
-      <c r="A86" t="s">
+      <c r="D86" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
         <v>252</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>253</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C87" s="7" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="18.75">
-      <c r="A87" t="s">
+      <c r="D87" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
         <v>255</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>256</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C88" s="7" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="18.75">
-      <c r="A88" t="s">
+      <c r="D88" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
         <v>258</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>259</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C89" s="7" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="18.75">
-      <c r="A89" t="s">
+      <c r="D89" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
         <v>261</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>262</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="18.75">
-      <c r="A90" t="s">
+      <c r="D90" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
         <v>264</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>265</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="C91" s="14" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="18.75">
-      <c r="A91" t="s">
+      <c r="D91" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
         <v>267</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>268</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="18.75">
-      <c r="A92" t="s">
+      <c r="D92" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
         <v>270</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>271</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C93" s="7" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="18.75">
-      <c r="A93" t="s">
+      <c r="D93" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
         <v>273</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>274</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C94" s="5" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="18.75">
-      <c r="A94" t="s">
+      <c r="D94" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
         <v>276</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>277</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C95" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="18.75">
-      <c r="A95" t="s">
+      <c r="D95" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
         <v>279</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>280</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C96" s="7" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="18.75">
-      <c r="A96" t="s">
+      <c r="D96" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
         <v>282</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>283</v>
       </c>
-      <c r="C96" s="13" t="s">
+      <c r="C97" s="13" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="18.75">
-      <c r="A97" t="s">
+      <c r="D97" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
         <v>285</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" t="s">
         <v>286</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C98" s="7" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="18.75">
-      <c r="A98" t="s">
+      <c r="D98" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
         <v>288</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>289</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C99" s="7" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="18.75">
-      <c r="A99" t="s">
+      <c r="D99" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
         <v>291</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>292</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="18.75">
-      <c r="A100" t="s">
+      <c r="D100" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
         <v>294</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>295</v>
       </c>
-      <c r="C100" s="12" t="s">
+      <c r="C101" s="12" t="s">
         <v>296</v>
       </c>
+      <c r="D101" t="s">
+        <v>1038</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FE504C-538E-4B56-85A4-D4F362EDCDA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C735"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -10473,6 +10916,8 @@
       <c r="C735" s="15"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>